--- a/data/vgp_database/Monterey_intrusions.xlsx
+++ b/data/vgp_database/Monterey_intrusions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AFA3B5-79D6-494B-AB98-5A947BCC3E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3AD061-322B-094E-AFD0-F865FFC96658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="520" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark2" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="90">
   <si>
     <t>Name:</t>
   </si>
@@ -302,55 +302,10 @@
     <t>Igneous:Intrusive</t>
   </si>
   <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.1</t>
+    <t>10.1029/JB079i002p00343:10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</t>
   </si>
   <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.2</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.3</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.4</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.5</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.6</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.7</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.8</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.9</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.10</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.11</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.12</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.13</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.14</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.15</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.16</t>
-  </si>
-  <si>
-    <t>10.1029/JB079i002p00343:10.1130/G35407.17</t>
+    <t>10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</t>
   </si>
 </sst>
 </file>
@@ -500,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -609,6 +564,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -827,8 +785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
-      <selection activeCell="AP10" sqref="AP10:AP26"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17:AP26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -849,7 +807,10 @@
     <col min="30" max="30" width="11.5" customWidth="1"/>
     <col min="31" max="31" width="10.6640625" customWidth="1"/>
     <col min="33" max="33" width="16.1640625" customWidth="1"/>
-    <col min="34" max="43" width="10.6640625" customWidth="1"/>
+    <col min="34" max="37" width="10.6640625" customWidth="1"/>
+    <col min="38" max="38" width="28.33203125" customWidth="1"/>
+    <col min="39" max="39" width="80.6640625" customWidth="1"/>
+    <col min="40" max="43" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -1633,7 +1594,7 @@
       <c r="AL10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AM10" s="8" t="s">
+      <c r="AM10" s="42" t="s">
         <v>47</v>
       </c>
       <c r="AN10" s="15" t="s">
@@ -1756,7 +1717,7 @@
         <v>49</v>
       </c>
       <c r="AP11" s="41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AQ11" s="10"/>
     </row>
@@ -1869,7 +1830,7 @@
         <v>49</v>
       </c>
       <c r="AP12" s="41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AQ12" s="10"/>
     </row>
@@ -1982,7 +1943,7 @@
         <v>49</v>
       </c>
       <c r="AP13" s="41" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="AQ13" s="10"/>
     </row>
@@ -2095,7 +2056,7 @@
         <v>49</v>
       </c>
       <c r="AP14" s="41" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AQ14" s="10"/>
     </row>
@@ -2208,7 +2169,7 @@
         <v>49</v>
       </c>
       <c r="AP15" s="41" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AQ15" s="10"/>
     </row>
@@ -2317,7 +2278,7 @@
         <v>75</v>
       </c>
       <c r="AP16" s="41" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AQ16" s="13"/>
     </row>
@@ -2425,8 +2386,9 @@
       <c r="AO17" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AP17" s="41" t="s">
-        <v>95</v>
+      <c r="AP17" s="41" t="str">
+        <f>AP16</f>
+        <v>10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</v>
       </c>
       <c r="AQ17" s="13"/>
     </row>
@@ -2534,8 +2496,9 @@
       <c r="AO18" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AP18" s="41" t="s">
-        <v>96</v>
+      <c r="AP18" s="41" t="str">
+        <f t="shared" ref="AP18:AP26" si="0">AP17</f>
+        <v>10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</v>
       </c>
       <c r="AQ18" s="13"/>
     </row>
@@ -2643,8 +2606,9 @@
       <c r="AO19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="AP19" s="41" t="s">
-        <v>97</v>
+      <c r="AP19" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</v>
       </c>
       <c r="AQ19" s="13"/>
     </row>
@@ -2752,8 +2716,9 @@
       <c r="AO20" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AP20" s="41" t="s">
-        <v>98</v>
+      <c r="AP20" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</v>
       </c>
       <c r="AQ20" s="13"/>
     </row>
@@ -2861,8 +2826,9 @@
       <c r="AO21" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AP21" s="41" t="s">
-        <v>99</v>
+      <c r="AP21" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</v>
       </c>
       <c r="AQ21" s="13"/>
     </row>
@@ -2970,8 +2936,9 @@
       <c r="AO22" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="AP22" s="41" t="s">
-        <v>100</v>
+      <c r="AP22" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</v>
       </c>
       <c r="AQ22" s="13"/>
     </row>
@@ -3079,8 +3046,9 @@
       <c r="AO23" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AP23" s="41" t="s">
-        <v>101</v>
+      <c r="AP23" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</v>
       </c>
       <c r="AQ23" s="13"/>
     </row>
@@ -3188,8 +3156,9 @@
       <c r="AO24" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AP24" s="41" t="s">
-        <v>102</v>
+      <c r="AP24" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</v>
       </c>
       <c r="AQ24" s="13"/>
     </row>
@@ -3297,8 +3266,9 @@
       <c r="AO25" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AP25" s="41" t="s">
-        <v>103</v>
+      <c r="AP25" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</v>
       </c>
       <c r="AQ25" s="13"/>
     </row>
@@ -3406,8 +3376,9 @@
       <c r="AO26" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AP26" s="41" t="s">
-        <v>104</v>
+      <c r="AP26" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1130/G35407.1:10.1139/e80-165:10.3133/b1839J</v>
       </c>
       <c r="AQ26" s="13"/>
     </row>
@@ -47012,7 +46983,12 @@
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP10" r:id="rId1" display="https://doi.org/10.1029/JB079i002p00343" xr:uid="{872A67F5-AF16-A04A-A50E-0F1A5A3CBEB6}"/>
-    <hyperlink ref="AP11:AP26" r:id="rId2" display="https://doi.org/10.1029/JB079i002p00343" xr:uid="{B7EC3F2B-C60C-1844-B726-05E984CDB638}"/>
+    <hyperlink ref="AP11" r:id="rId2" display="https://doi.org/10.1029/JB079i002p00343" xr:uid="{1700F366-3DF4-3942-8603-B24E49A0B343}"/>
+    <hyperlink ref="AP12" r:id="rId3" display="https://doi.org/10.1029/JB079i002p00343" xr:uid="{90CD420E-5C9C-2445-AD72-02EA0F77AC6E}"/>
+    <hyperlink ref="AP13" r:id="rId4" display="https://doi.org/10.1029/JB079i002p00343" xr:uid="{27546ADC-D808-374A-A6B4-32FAEF519586}"/>
+    <hyperlink ref="AP14" r:id="rId5" display="https://doi.org/10.1029/JB079i002p00343" xr:uid="{9115DD16-963A-484D-951F-8CDFF8A8EB69}"/>
+    <hyperlink ref="AP15" r:id="rId6" display="https://doi.org/10.1029/JB079i002p00343" xr:uid="{4E791A3F-8EA7-9C49-A681-D57C79A5E7C3}"/>
+    <hyperlink ref="AP16" r:id="rId7" display="https://doi.org/10.1029/JB079i002p00343" xr:uid="{BE104C25-D9A5-0742-A2D5-9E06F3A45AF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
